--- a/data/GB_Einzel_Template_B2020.xlsx
+++ b/data/GB_Einzel_Template_B2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365-my.sharepoint.com/personal/sm16a062_campus_unibe_ch/Documents/FS22_OpenData_Übung/Projekt_LwEinkommenMonitoring/01_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365-my.sharepoint.com/personal/sm16a062_campus_unibe_ch/Documents/FS22_OpenData_Übung/Projekt_Agro_Income/agro_income/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0A1FD63016B7822A5AD1E4668DA695E592E362EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC0277C2-70C4-4985-9EFF-A3DA90A83AD3}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_0A1FD63016B7822A5AD1E4668DA695E592E362EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFF3E298-0A44-4BA6-B981-99C478648FD2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZA-Data" sheetId="2" r:id="rId1"/>
@@ -30,10 +30,19 @@
     <definedName name="P430_2110_44930">[2]MM430!$E$444</definedName>
     <definedName name="P430_2110_44940">[2]MM430!$E$445</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -9326,16 +9335,19 @@
   </sheetPr>
   <dimension ref="A1:BG682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS57" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AS88" workbookViewId="0">
+      <selection activeCell="BF89" sqref="BF89"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="57" width="10" style="1"/>
-    <col min="58" max="58" width="18.1640625" style="1" customWidth="1"/>
+    <col min="1" max="56" width="10" style="1"/>
+    <col min="57" max="57" width="19.125" style="1" customWidth="1"/>
+    <col min="58" max="58" width="18.125" style="1" customWidth="1"/>
     <col min="59" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9508,7 +9520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AV2" s="1" t="s">
         <v>17</v>
       </c>
@@ -9519,7 +9531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AV3" s="1" t="s">
         <v>20</v>
       </c>
@@ -9533,7 +9545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AV4" s="1" t="s">
         <v>23</v>
       </c>
@@ -9547,7 +9559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AV5" s="1" t="s">
         <v>27</v>
       </c>
@@ -9561,7 +9573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AV6" s="1" t="s">
         <v>30</v>
       </c>
@@ -9575,7 +9587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AV7" s="1" t="s">
         <v>33</v>
       </c>
@@ -9589,7 +9601,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AV8" s="1" t="s">
         <v>36</v>
       </c>
@@ -9603,7 +9615,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AV9" s="1" t="s">
         <v>39</v>
       </c>
@@ -9617,7 +9629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="AV10" s="1" t="s">
         <v>42</v>
@@ -9632,7 +9644,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
@@ -9655,7 +9667,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
@@ -9678,7 +9690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
@@ -9725,7 +9737,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>58</v>
       </c>
@@ -9772,7 +9784,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
         <v>63</v>
       </c>
@@ -9819,7 +9831,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>68</v>
       </c>
@@ -9842,7 +9854,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
         <v>52</v>
       </c>
@@ -9889,7 +9901,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>58</v>
       </c>
@@ -9936,7 +9948,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>63</v>
       </c>
@@ -9983,12 +9995,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD21" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>77</v>
       </c>
@@ -10011,7 +10023,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>81</v>
       </c>
@@ -10058,7 +10070,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>85</v>
       </c>
@@ -10105,7 +10117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>88</v>
       </c>
@@ -10128,7 +10140,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>92</v>
       </c>
@@ -10175,7 +10187,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>100</v>
       </c>
@@ -10222,7 +10234,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>105</v>
@@ -10270,7 +10282,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>110</v>
       </c>
@@ -10317,7 +10329,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>118</v>
       </c>
@@ -10364,7 +10376,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>125</v>
       </c>
@@ -10411,7 +10423,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
         <v>130</v>
       </c>
@@ -10458,7 +10470,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
         <v>135</v>
       </c>
@@ -10505,7 +10517,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
         <v>140</v>
       </c>
@@ -10552,7 +10564,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
         <v>105</v>
       </c>
@@ -10599,7 +10611,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="AV37" s="1" t="s">
         <v>147</v>
@@ -10617,7 +10629,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD38" s="1" t="s">
         <v>91</v>
       </c>
@@ -10625,12 +10637,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AV40" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AV41" s="1" t="s">
         <v>150</v>
       </c>
@@ -10644,7 +10656,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AV42" s="1" t="s">
         <v>153</v>
       </c>
@@ -10658,7 +10670,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AV43" s="1" t="s">
         <v>156</v>
       </c>
@@ -10672,7 +10684,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AV44" s="1" t="s">
         <v>159</v>
       </c>
@@ -10686,7 +10698,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AV45" s="1" t="s">
         <v>162</v>
       </c>
@@ -10700,7 +10712,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AV46" s="1" t="s">
         <v>165</v>
       </c>
@@ -10714,7 +10726,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AV47" s="1" t="s">
         <v>168</v>
       </c>
@@ -10728,7 +10740,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AV48" s="1" t="s">
         <v>171</v>
       </c>
@@ -10742,7 +10754,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AV49" s="1" t="s">
         <v>174</v>
       </c>
@@ -10756,12 +10768,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="BG50" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="C51" s="1" t="s">
         <v>177</v>
@@ -10791,7 +10803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>180</v>
       </c>
@@ -10841,7 +10853,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>187</v>
       </c>
@@ -10891,7 +10903,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>193</v>
       </c>
@@ -10941,7 +10953,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>200</v>
       </c>
@@ -10991,7 +11003,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>205</v>
       </c>
@@ -11041,7 +11053,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>514</v>
       </c>
@@ -11091,7 +11103,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>516</v>
       </c>
@@ -11141,7 +11153,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>511515</v>
       </c>
@@ -11191,7 +11203,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="F60" s="1" t="s">
         <v>224</v>
@@ -11239,7 +11251,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>229</v>
       </c>
@@ -11289,7 +11301,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>531</v>
       </c>
@@ -11339,7 +11351,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>522</v>
       </c>
@@ -11389,7 +11401,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>246</v>
       </c>
@@ -11439,7 +11451,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>525</v>
       </c>
@@ -11489,7 +11501,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>256</v>
       </c>
@@ -11539,7 +11551,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>504</v>
       </c>
@@ -11589,7 +11601,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>265</v>
       </c>
@@ -11639,7 +11651,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>505</v>
       </c>
@@ -11689,7 +11701,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>272</v>
       </c>
@@ -11739,7 +11751,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>508</v>
       </c>
@@ -11789,7 +11801,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>521</v>
       </c>
@@ -11839,7 +11851,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F73" s="1" t="s">
         <v>288</v>
       </c>
@@ -11886,7 +11898,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>523</v>
       </c>
@@ -11936,7 +11948,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>298</v>
       </c>
@@ -11986,7 +11998,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>304</v>
       </c>
@@ -12036,7 +12048,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>541</v>
       </c>
@@ -12086,7 +12098,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>517519</v>
       </c>
@@ -12136,7 +12148,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>321</v>
       </c>
@@ -12186,7 +12198,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>327</v>
       </c>
@@ -12236,7 +12248,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>332</v>
       </c>
@@ -12289,7 +12301,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>337</v>
       </c>
@@ -12339,7 +12351,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="83" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>343</v>
       </c>
@@ -12389,7 +12401,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="84" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>348</v>
       </c>
@@ -12442,7 +12454,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="85" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>357</v>
       </c>
@@ -12489,7 +12501,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>363</v>
       </c>
@@ -12539,7 +12551,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="87" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>701</v>
       </c>
@@ -12589,7 +12601,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="88" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>372</v>
       </c>
@@ -12639,7 +12651,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="89" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>377</v>
       </c>
@@ -12689,7 +12701,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="90" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>382</v>
       </c>
@@ -12739,7 +12751,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="91" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>388</v>
       </c>
@@ -12789,7 +12801,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="92" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>901</v>
       </c>
@@ -12839,7 +12851,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="93" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>401</v>
       </c>
@@ -12892,7 +12904,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>411</v>
       </c>
@@ -12945,7 +12957,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>419</v>
       </c>
@@ -12998,7 +13010,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="96" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C96" s="1" t="s">
         <v>426</v>
       </c>
@@ -13045,7 +13057,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="97" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>437</v>
       </c>
@@ -13095,7 +13107,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="s">
         <v>442</v>
       </c>
@@ -13142,7 +13154,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="99" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AV99" s="1" t="s">
         <v>450</v>
       </c>
@@ -13159,7 +13171,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="100" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
         <v>454</v>
       </c>
@@ -13206,7 +13218,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="101" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
         <v>459</v>
       </c>
@@ -13253,7 +13265,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="102" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C102" s="1" t="s">
         <v>464</v>
       </c>
@@ -13300,7 +13312,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="103" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C103" s="1" t="s">
         <v>469</v>
       </c>
@@ -13347,7 +13359,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="104" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C104" s="1" t="s">
         <v>474</v>
       </c>
@@ -13394,7 +13406,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="105" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
         <v>479</v>
       </c>
@@ -13441,7 +13453,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="106" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="s">
         <v>484</v>
       </c>
@@ -13488,12 +13500,12 @@
         <v>488</v>
       </c>
     </row>
-    <row r="107" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD107" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
         <v>489</v>
       </c>
@@ -13516,7 +13528,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="109" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
         <v>494</v>
       </c>
@@ -13563,7 +13575,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="110" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>44041</v>
       </c>
@@ -13613,7 +13625,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="111" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>508</v>
       </c>
@@ -13663,7 +13675,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="112" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>514</v>
       </c>
@@ -13713,7 +13725,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="113" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>520</v>
       </c>
@@ -13763,7 +13775,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="114" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D114" s="1" t="s">
         <v>527</v>
       </c>
@@ -13810,7 +13822,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>532</v>
       </c>
@@ -13860,7 +13872,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="116" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E116" s="1" t="s">
         <v>538</v>
       </c>
@@ -13907,7 +13919,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="117" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E117" s="1" t="s">
         <v>543</v>
       </c>
@@ -13954,7 +13966,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="118" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E118" s="1" t="s">
         <v>548</v>
       </c>
@@ -14001,7 +14013,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="119" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D119" s="1" t="s">
         <v>553</v>
       </c>
@@ -14048,7 +14060,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="120" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D120" s="1" t="s">
         <v>558</v>
       </c>
@@ -14095,7 +14107,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="121" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D121" s="1" t="s">
         <v>563</v>
       </c>
@@ -14142,7 +14154,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="122" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="s">
         <v>568</v>
       </c>
@@ -14189,7 +14201,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="123" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="s">
         <v>576</v>
       </c>
@@ -14236,7 +14248,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="124" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D124" s="1" t="s">
         <v>581</v>
       </c>
@@ -14283,7 +14295,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="125" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D125" s="1" t="s">
         <v>586</v>
       </c>
@@ -14330,12 +14342,12 @@
         <v>590</v>
       </c>
     </row>
-    <row r="126" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AV126" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="127" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AW127" s="1" t="s">
         <v>592</v>
       </c>
@@ -14349,7 +14361,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="128" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AW128" s="1" t="s">
         <v>595</v>
       </c>
@@ -14363,7 +14375,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="129" spans="49:58" x14ac:dyDescent="0.35">
+    <row r="129" spans="49:58" x14ac:dyDescent="0.25">
       <c r="AW129" s="1" t="s">
         <v>598</v>
       </c>
@@ -14377,7 +14389,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="130" spans="49:58" x14ac:dyDescent="0.35">
+    <row r="130" spans="49:58" x14ac:dyDescent="0.25">
       <c r="AW130" s="1" t="s">
         <v>601</v>
       </c>
@@ -14391,7 +14403,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="131" spans="49:58" x14ac:dyDescent="0.35">
+    <row r="131" spans="49:58" x14ac:dyDescent="0.25">
       <c r="AW131" s="1" t="s">
         <v>604</v>
       </c>
@@ -14405,7 +14417,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="132" spans="49:58" x14ac:dyDescent="0.35">
+    <row r="132" spans="49:58" x14ac:dyDescent="0.25">
       <c r="AW132" s="1" t="s">
         <v>607</v>
       </c>
@@ -14419,7 +14431,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="133" spans="49:58" x14ac:dyDescent="0.35">
+    <row r="133" spans="49:58" x14ac:dyDescent="0.25">
       <c r="AW133" s="1" t="s">
         <v>610</v>
       </c>
@@ -14433,7 +14445,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="134" spans="49:58" x14ac:dyDescent="0.35">
+    <row r="134" spans="49:58" x14ac:dyDescent="0.25">
       <c r="AW134" s="1" t="s">
         <v>613</v>
       </c>
@@ -14447,7 +14459,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="135" spans="49:58" x14ac:dyDescent="0.35">
+    <row r="135" spans="49:58" x14ac:dyDescent="0.25">
       <c r="AW135" s="1" t="s">
         <v>540</v>
       </c>
@@ -14461,7 +14473,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="136" spans="49:58" x14ac:dyDescent="0.35">
+    <row r="136" spans="49:58" x14ac:dyDescent="0.25">
       <c r="AW136" s="1" t="s">
         <v>545</v>
       </c>
@@ -14475,7 +14487,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="137" spans="49:58" x14ac:dyDescent="0.35">
+    <row r="137" spans="49:58" x14ac:dyDescent="0.25">
       <c r="AW137" s="1" t="s">
         <v>620</v>
       </c>
@@ -14489,7 +14501,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="138" spans="49:58" x14ac:dyDescent="0.35">
+    <row r="138" spans="49:58" x14ac:dyDescent="0.25">
       <c r="AW138" s="1" t="s">
         <v>623</v>
       </c>
@@ -14503,7 +14515,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="139" spans="49:58" x14ac:dyDescent="0.35">
+    <row r="139" spans="49:58" x14ac:dyDescent="0.25">
       <c r="AW139" s="1" t="s">
         <v>626</v>
       </c>
@@ -14517,7 +14529,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="140" spans="49:58" x14ac:dyDescent="0.35">
+    <row r="140" spans="49:58" x14ac:dyDescent="0.25">
       <c r="AW140" s="1" t="s">
         <v>629</v>
       </c>
@@ -14531,7 +14543,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="141" spans="49:58" x14ac:dyDescent="0.35">
+    <row r="141" spans="49:58" x14ac:dyDescent="0.25">
       <c r="AW141" s="1" t="s">
         <v>632</v>
       </c>
@@ -14545,7 +14557,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="142" spans="49:58" x14ac:dyDescent="0.35">
+    <row r="142" spans="49:58" x14ac:dyDescent="0.25">
       <c r="AW142" s="1" t="s">
         <v>635</v>
       </c>
@@ -14559,7 +14571,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="143" spans="49:58" x14ac:dyDescent="0.35">
+    <row r="143" spans="49:58" x14ac:dyDescent="0.25">
       <c r="AW143" s="1" t="s">
         <v>638</v>
       </c>
@@ -14573,7 +14585,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="144" spans="49:58" x14ac:dyDescent="0.35">
+    <row r="144" spans="49:58" x14ac:dyDescent="0.25">
       <c r="AW144" s="1" t="s">
         <v>641</v>
       </c>
@@ -14587,7 +14599,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="145" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AW145" s="1" t="s">
         <v>644</v>
       </c>
@@ -14601,7 +14613,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="146" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AW146" s="1" t="s">
         <v>647</v>
       </c>
@@ -14615,7 +14627,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="147" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AW147" s="1" t="s">
         <v>650</v>
       </c>
@@ -14629,7 +14641,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="148" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AW148" s="1" t="s">
         <v>653</v>
       </c>
@@ -14643,7 +14655,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="149" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AW149" s="1" t="s">
         <v>656</v>
       </c>
@@ -14657,7 +14669,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="150" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:59" x14ac:dyDescent="0.25">
       <c r="BD150" s="1" t="s">
         <v>659</v>
       </c>
@@ -14668,7 +14680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C151" s="1" t="s">
         <v>660</v>
       </c>
@@ -14697,7 +14709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>666</v>
       </c>
@@ -14750,7 +14762,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="153" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>666</v>
       </c>
@@ -14803,7 +14815,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="154" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>666</v>
       </c>
@@ -14856,7 +14868,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="155" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>666</v>
       </c>
@@ -14909,7 +14921,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="156" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>666</v>
       </c>
@@ -14962,7 +14974,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="157" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>692</v>
       </c>
@@ -15015,7 +15027,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="158" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>666</v>
       </c>
@@ -15068,7 +15080,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="159" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:59" x14ac:dyDescent="0.25">
       <c r="G159" s="1" t="s">
         <v>505</v>
       </c>
@@ -15115,7 +15127,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="160" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:59" x14ac:dyDescent="0.25">
       <c r="G160" s="1" t="s">
         <v>553</v>
       </c>
@@ -15162,7 +15174,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="161" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:58" x14ac:dyDescent="0.25">
       <c r="G161" s="1" t="s">
         <v>558</v>
       </c>
@@ -15209,7 +15221,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="162" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:58" x14ac:dyDescent="0.25">
       <c r="G162" s="1" t="s">
         <v>715</v>
       </c>
@@ -15256,7 +15268,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="163" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>666</v>
       </c>
@@ -15309,7 +15321,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="164" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>666</v>
       </c>
@@ -15362,7 +15374,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="165" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>666</v>
       </c>
@@ -15415,7 +15427,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="166" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>666</v>
       </c>
@@ -15468,7 +15480,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="167" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>666</v>
       </c>
@@ -15521,7 +15533,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="168" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F168" s="1" t="s">
         <v>49</v>
       </c>
@@ -15568,7 +15580,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="169" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F169" s="1" t="s">
         <v>752</v>
       </c>
@@ -15615,7 +15627,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="170" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F170" s="1" t="s">
         <v>757</v>
       </c>
@@ -15662,7 +15674,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="171" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F171" s="1" t="s">
         <v>364</v>
       </c>
@@ -15709,7 +15721,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="172" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F172" s="1" t="s">
         <v>764</v>
       </c>
@@ -15756,7 +15768,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="173" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F173" s="1" t="s">
         <v>768</v>
       </c>
@@ -15803,7 +15815,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="174" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>666</v>
       </c>
@@ -15856,7 +15868,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="175" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F175" s="1" t="s">
         <v>778</v>
       </c>
@@ -15903,7 +15915,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="176" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F176" s="1" t="s">
         <v>783</v>
       </c>
@@ -15950,7 +15962,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="177" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>666</v>
       </c>
@@ -16003,7 +16015,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="178" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>666</v>
       </c>
@@ -16056,7 +16068,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="179" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>666</v>
       </c>
@@ -16109,7 +16121,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="180" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>666</v>
       </c>
@@ -16162,7 +16174,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="181" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>666</v>
       </c>
@@ -16215,7 +16227,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="182" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>666</v>
       </c>
@@ -16268,7 +16280,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="183" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>666</v>
       </c>
@@ -16321,7 +16333,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="184" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:58" x14ac:dyDescent="0.25">
       <c r="G184" s="1" t="s">
         <v>825</v>
       </c>
@@ -16368,7 +16380,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="185" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:58" x14ac:dyDescent="0.25">
       <c r="G185" s="1" t="s">
         <v>831</v>
       </c>
@@ -16415,7 +16427,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="186" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:58" x14ac:dyDescent="0.25">
       <c r="H186" s="1" t="s">
         <v>838</v>
       </c>
@@ -16462,7 +16474,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="187" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:58" x14ac:dyDescent="0.25">
       <c r="H187" s="1" t="s">
         <v>843</v>
       </c>
@@ -16509,7 +16521,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="188" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:58" x14ac:dyDescent="0.25">
       <c r="H188" s="1" t="s">
         <v>851</v>
       </c>
@@ -16556,7 +16568,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="189" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:58" x14ac:dyDescent="0.25">
       <c r="H189" s="1" t="s">
         <v>858</v>
       </c>
@@ -16603,7 +16615,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="190" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>666</v>
       </c>
@@ -16656,7 +16668,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="191" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>666</v>
       </c>
@@ -16709,7 +16721,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="192" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>666</v>
       </c>
@@ -16759,7 +16771,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="193" spans="2:59" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:59" x14ac:dyDescent="0.25">
       <c r="F193" s="1" t="s">
         <v>880</v>
       </c>
@@ -16806,7 +16818,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="194" spans="2:59" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:59" x14ac:dyDescent="0.25">
       <c r="G194" s="1" t="s">
         <v>888</v>
       </c>
@@ -16853,7 +16865,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="195" spans="2:59" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:59" x14ac:dyDescent="0.25">
       <c r="G195" s="1" t="s">
         <v>893</v>
       </c>
@@ -16900,7 +16912,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="196" spans="2:59" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:59" x14ac:dyDescent="0.25">
       <c r="G196" s="1" t="s">
         <v>901</v>
       </c>
@@ -16947,7 +16959,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="197" spans="2:59" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:59" x14ac:dyDescent="0.25">
       <c r="G197" s="1" t="s">
         <v>909</v>
       </c>
@@ -16994,7 +17006,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="198" spans="2:59" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:59" x14ac:dyDescent="0.25">
       <c r="C198" s="1" t="s">
         <v>917</v>
       </c>
@@ -17041,7 +17053,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="199" spans="2:59" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:59" x14ac:dyDescent="0.25">
       <c r="C199" s="1" t="s">
         <v>922</v>
       </c>
@@ -17088,7 +17100,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="200" spans="2:59" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:59" x14ac:dyDescent="0.25">
       <c r="C200" s="1" t="s">
         <v>927</v>
       </c>
@@ -17135,7 +17147,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="201" spans="2:59" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:59" x14ac:dyDescent="0.25">
       <c r="BD201" s="1" t="s">
         <v>91</v>
       </c>
@@ -17146,7 +17158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="2:59" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:59" x14ac:dyDescent="0.25">
       <c r="C202" s="1" t="s">
         <v>935</v>
       </c>
@@ -17178,7 +17190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="2:59" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>30000</v>
       </c>
@@ -17228,7 +17240,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="204" spans="2:59" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:59" x14ac:dyDescent="0.25">
       <c r="D204" s="1" t="s">
         <v>944</v>
       </c>
@@ -17275,7 +17287,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="205" spans="2:59" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>30900</v>
       </c>
@@ -17325,7 +17337,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="206" spans="2:59" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:59" x14ac:dyDescent="0.25">
       <c r="F206" s="1" t="s">
         <v>957</v>
       </c>
@@ -17372,7 +17384,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="207" spans="2:59" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:59" x14ac:dyDescent="0.25">
       <c r="F207" s="1" t="s">
         <v>962</v>
       </c>
@@ -17419,7 +17431,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="208" spans="2:59" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:59" x14ac:dyDescent="0.25">
       <c r="F208" s="1" t="s">
         <v>967</v>
       </c>
@@ -17466,7 +17478,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="209" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:58" x14ac:dyDescent="0.25">
       <c r="F209" s="1" t="s">
         <v>973</v>
       </c>
@@ -17513,7 +17525,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="210" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:58" x14ac:dyDescent="0.25">
       <c r="F210" s="1" t="s">
         <v>978</v>
       </c>
@@ -17560,7 +17572,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="211" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>31000</v>
       </c>
@@ -17610,7 +17622,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="212" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>32000</v>
       </c>
@@ -17660,7 +17672,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="213" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:58" x14ac:dyDescent="0.25">
       <c r="F213" s="1" t="s">
         <v>994</v>
       </c>
@@ -17707,7 +17719,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="214" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:58" x14ac:dyDescent="0.25">
       <c r="F214" s="1" t="s">
         <v>999</v>
       </c>
@@ -17754,7 +17766,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="215" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:58" x14ac:dyDescent="0.25">
       <c r="F215" s="1" t="s">
         <v>1004</v>
       </c>
@@ -17801,7 +17813,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="216" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:58" x14ac:dyDescent="0.25">
       <c r="F216" s="1" t="s">
         <v>1009</v>
       </c>
@@ -17848,7 +17860,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="217" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:58" x14ac:dyDescent="0.25">
       <c r="F217" s="1" t="s">
         <v>1014</v>
       </c>
@@ -17895,7 +17907,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="218" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:58" x14ac:dyDescent="0.25">
       <c r="F218" s="1" t="s">
         <v>1019</v>
       </c>
@@ -17942,7 +17954,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="219" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>33000</v>
       </c>
@@ -17992,7 +18004,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="220" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:58" x14ac:dyDescent="0.25">
       <c r="F220" s="1" t="s">
         <v>1029</v>
       </c>
@@ -18039,12 +18051,12 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="221" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AV221" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="222" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AY222" s="1" t="s">
         <v>203</v>
       </c>
@@ -18058,7 +18070,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="223" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AZ223" s="1" t="s">
         <v>208</v>
       </c>
@@ -18072,7 +18084,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="224" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AZ224" s="1" t="s">
         <v>213</v>
       </c>
@@ -18086,7 +18098,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="225" spans="51:58" x14ac:dyDescent="0.35">
+    <row r="225" spans="51:58" x14ac:dyDescent="0.25">
       <c r="AZ225" s="1" t="s">
         <v>217</v>
       </c>
@@ -18100,7 +18112,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="226" spans="51:58" x14ac:dyDescent="0.35">
+    <row r="226" spans="51:58" x14ac:dyDescent="0.25">
       <c r="AZ226" s="1" t="s">
         <v>221</v>
       </c>
@@ -18114,7 +18126,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="227" spans="51:58" x14ac:dyDescent="0.35">
+    <row r="227" spans="51:58" x14ac:dyDescent="0.25">
       <c r="AY227" s="1" t="s">
         <v>226</v>
       </c>
@@ -18128,7 +18140,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="228" spans="51:58" x14ac:dyDescent="0.35">
+    <row r="228" spans="51:58" x14ac:dyDescent="0.25">
       <c r="AZ228" s="1" t="s">
         <v>232</v>
       </c>
@@ -18142,7 +18154,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="229" spans="51:58" x14ac:dyDescent="0.35">
+    <row r="229" spans="51:58" x14ac:dyDescent="0.25">
       <c r="AZ229" s="1" t="s">
         <v>237</v>
       </c>
@@ -18156,7 +18168,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="230" spans="51:58" x14ac:dyDescent="0.35">
+    <row r="230" spans="51:58" x14ac:dyDescent="0.25">
       <c r="AY230" s="1" t="s">
         <v>243</v>
       </c>
@@ -18170,7 +18182,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="231" spans="51:58" x14ac:dyDescent="0.35">
+    <row r="231" spans="51:58" x14ac:dyDescent="0.25">
       <c r="AY231" s="1" t="s">
         <v>249</v>
       </c>
@@ -18184,7 +18196,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="232" spans="51:58" x14ac:dyDescent="0.35">
+    <row r="232" spans="51:58" x14ac:dyDescent="0.25">
       <c r="AZ232" s="1" t="s">
         <v>253</v>
       </c>
@@ -18198,7 +18210,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="233" spans="51:58" x14ac:dyDescent="0.35">
+    <row r="233" spans="51:58" x14ac:dyDescent="0.25">
       <c r="AY233" s="1" t="s">
         <v>259</v>
       </c>
@@ -18212,7 +18224,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="234" spans="51:58" x14ac:dyDescent="0.35">
+    <row r="234" spans="51:58" x14ac:dyDescent="0.25">
       <c r="AZ234" s="1" t="s">
         <v>263</v>
       </c>
@@ -18226,7 +18238,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="235" spans="51:58" x14ac:dyDescent="0.35">
+    <row r="235" spans="51:58" x14ac:dyDescent="0.25">
       <c r="AZ235" s="1" t="s">
         <v>268</v>
       </c>
@@ -18240,7 +18252,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="236" spans="51:58" x14ac:dyDescent="0.35">
+    <row r="236" spans="51:58" x14ac:dyDescent="0.25">
       <c r="AZ236" s="1" t="s">
         <v>270</v>
       </c>
@@ -18254,7 +18266,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="237" spans="51:58" x14ac:dyDescent="0.35">
+    <row r="237" spans="51:58" x14ac:dyDescent="0.25">
       <c r="AZ237" s="1" t="s">
         <v>275</v>
       </c>
@@ -18268,7 +18280,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="238" spans="51:58" x14ac:dyDescent="0.35">
+    <row r="238" spans="51:58" x14ac:dyDescent="0.25">
       <c r="AY238" s="1" t="s">
         <v>280</v>
       </c>
@@ -18282,7 +18294,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="239" spans="51:58" x14ac:dyDescent="0.35">
+    <row r="239" spans="51:58" x14ac:dyDescent="0.25">
       <c r="AY239" s="1" t="s">
         <v>285</v>
       </c>
@@ -18296,7 +18308,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="240" spans="51:58" x14ac:dyDescent="0.35">
+    <row r="240" spans="51:58" x14ac:dyDescent="0.25">
       <c r="AY240" s="1" t="s">
         <v>290</v>
       </c>
@@ -18310,7 +18322,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="241" spans="50:58" x14ac:dyDescent="0.35">
+    <row r="241" spans="50:58" x14ac:dyDescent="0.25">
       <c r="AZ241" s="1" t="s">
         <v>295</v>
       </c>
@@ -18324,7 +18336,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="242" spans="50:58" x14ac:dyDescent="0.35">
+    <row r="242" spans="50:58" x14ac:dyDescent="0.25">
       <c r="AZ242" s="1" t="s">
         <v>301</v>
       </c>
@@ -18338,7 +18350,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="243" spans="50:58" x14ac:dyDescent="0.35">
+    <row r="243" spans="50:58" x14ac:dyDescent="0.25">
       <c r="AZ243" s="1" t="s">
         <v>307</v>
       </c>
@@ -18352,7 +18364,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="244" spans="50:58" x14ac:dyDescent="0.35">
+    <row r="244" spans="50:58" x14ac:dyDescent="0.25">
       <c r="AZ244" s="1" t="s">
         <v>313</v>
       </c>
@@ -18366,7 +18378,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="245" spans="50:58" x14ac:dyDescent="0.35">
+    <row r="245" spans="50:58" x14ac:dyDescent="0.25">
       <c r="AZ245" s="1" t="s">
         <v>317</v>
       </c>
@@ -18380,7 +18392,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="246" spans="50:58" x14ac:dyDescent="0.35">
+    <row r="246" spans="50:58" x14ac:dyDescent="0.25">
       <c r="AZ246" s="1" t="s">
         <v>324</v>
       </c>
@@ -18394,7 +18406,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="247" spans="50:58" x14ac:dyDescent="0.35">
+    <row r="247" spans="50:58" x14ac:dyDescent="0.25">
       <c r="AZ247" s="1" t="s">
         <v>330</v>
       </c>
@@ -18408,7 +18420,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="248" spans="50:58" x14ac:dyDescent="0.35">
+    <row r="248" spans="50:58" x14ac:dyDescent="0.25">
       <c r="AZ248" s="1" t="s">
         <v>334</v>
       </c>
@@ -18422,7 +18434,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="249" spans="50:58" x14ac:dyDescent="0.35">
+    <row r="249" spans="50:58" x14ac:dyDescent="0.25">
       <c r="AX249" s="1" t="s">
         <v>340</v>
       </c>
@@ -18436,7 +18448,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="250" spans="50:58" x14ac:dyDescent="0.35">
+    <row r="250" spans="50:58" x14ac:dyDescent="0.25">
       <c r="AY250" s="1" t="s">
         <v>346</v>
       </c>
@@ -18450,7 +18462,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="251" spans="50:58" x14ac:dyDescent="0.35">
+    <row r="251" spans="50:58" x14ac:dyDescent="0.25">
       <c r="AY251" s="1" t="s">
         <v>1063</v>
       </c>
@@ -18464,7 +18476,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="252" spans="50:58" x14ac:dyDescent="0.35">
+    <row r="252" spans="50:58" x14ac:dyDescent="0.25">
       <c r="AY252" s="1" t="s">
         <v>360</v>
       </c>
@@ -18478,7 +18490,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="253" spans="50:58" x14ac:dyDescent="0.35">
+    <row r="253" spans="50:58" x14ac:dyDescent="0.25">
       <c r="AX253" s="1" t="s">
         <v>366</v>
       </c>
@@ -18492,7 +18504,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="254" spans="50:58" x14ac:dyDescent="0.35">
+    <row r="254" spans="50:58" x14ac:dyDescent="0.25">
       <c r="AY254" s="1" t="s">
         <v>370</v>
       </c>
@@ -18506,7 +18518,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="255" spans="50:58" x14ac:dyDescent="0.35">
+    <row r="255" spans="50:58" x14ac:dyDescent="0.25">
       <c r="AY255" s="1" t="s">
         <v>375</v>
       </c>
@@ -18520,7 +18532,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="256" spans="50:58" x14ac:dyDescent="0.35">
+    <row r="256" spans="50:58" x14ac:dyDescent="0.25">
       <c r="AY256" s="1" t="s">
         <v>380</v>
       </c>
@@ -18534,7 +18546,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="257" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AY257" s="1" t="s">
         <v>385</v>
       </c>
@@ -18548,7 +18560,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="258" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AX258" s="1" t="s">
         <v>394</v>
       </c>
@@ -18562,7 +18574,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="259" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AW259" s="1" t="s">
         <v>399</v>
       </c>
@@ -18576,7 +18588,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="260" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AW260" s="1" t="s">
         <v>408</v>
       </c>
@@ -18590,7 +18602,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="261" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
         <v>1074</v>
       </c>
@@ -18607,7 +18619,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="262" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>34000</v>
       </c>
@@ -18657,7 +18669,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="263" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E263" s="1" t="s">
         <v>1083</v>
       </c>
@@ -18704,7 +18716,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="264" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E264" s="1" t="s">
         <v>1088</v>
       </c>
@@ -18751,7 +18763,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="265" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:58" x14ac:dyDescent="0.25">
       <c r="F265" s="1" t="s">
         <v>1093</v>
       </c>
@@ -18798,7 +18810,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="266" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AZ266" s="1" t="s">
         <v>1098</v>
       </c>
@@ -18809,7 +18821,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="267" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AZ267" s="1" t="s">
         <v>1100</v>
       </c>
@@ -18820,7 +18832,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="268" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:58" x14ac:dyDescent="0.25">
       <c r="F268" s="1" t="s">
         <v>1102</v>
       </c>
@@ -18867,7 +18879,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="269" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AZ269" s="1" t="s">
         <v>1107</v>
       </c>
@@ -18878,7 +18890,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="270" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AZ270" s="1" t="s">
         <v>1109</v>
       </c>
@@ -18889,7 +18901,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="271" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AZ271" s="1" t="s">
         <v>1111</v>
       </c>
@@ -18900,7 +18912,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="272" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:58" x14ac:dyDescent="0.25">
       <c r="F272" s="1" t="s">
         <v>1113</v>
       </c>
@@ -18947,7 +18959,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="273" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="273" spans="5:58" x14ac:dyDescent="0.25">
       <c r="AZ273" s="1" t="s">
         <v>1120</v>
       </c>
@@ -18958,7 +18970,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="274" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="274" spans="5:58" x14ac:dyDescent="0.25">
       <c r="AZ274" s="1" t="s">
         <v>1122</v>
       </c>
@@ -18969,7 +18981,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="275" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="275" spans="5:58" x14ac:dyDescent="0.25">
       <c r="AZ275" s="1" t="s">
         <v>1124</v>
       </c>
@@ -18980,7 +18992,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="276" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="276" spans="5:58" x14ac:dyDescent="0.25">
       <c r="AZ276" s="1" t="s">
         <v>1126</v>
       </c>
@@ -18991,7 +19003,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="277" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="277" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E277" s="1" t="s">
         <v>1128</v>
       </c>
@@ -19038,7 +19050,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="278" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="278" spans="5:58" x14ac:dyDescent="0.25">
       <c r="AY278" s="1" t="s">
         <v>1133</v>
       </c>
@@ -19049,7 +19061,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="279" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="279" spans="5:58" x14ac:dyDescent="0.25">
       <c r="AY279" s="1" t="s">
         <v>1135</v>
       </c>
@@ -19060,7 +19072,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="280" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="280" spans="5:58" x14ac:dyDescent="0.25">
       <c r="AY280" s="1" t="s">
         <v>1137</v>
       </c>
@@ -19071,7 +19083,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="281" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="281" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E281" s="1" t="s">
         <v>1139</v>
       </c>
@@ -19118,7 +19130,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="282" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="282" spans="5:58" x14ac:dyDescent="0.25">
       <c r="F282" s="1" t="s">
         <v>1144</v>
       </c>
@@ -19165,7 +19177,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="283" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="283" spans="5:58" x14ac:dyDescent="0.25">
       <c r="F283" s="1" t="s">
         <v>1149</v>
       </c>
@@ -19212,7 +19224,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="284" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="284" spans="5:58" x14ac:dyDescent="0.25">
       <c r="AZ284" s="1" t="s">
         <v>1154</v>
       </c>
@@ -19223,7 +19235,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="285" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="285" spans="5:58" x14ac:dyDescent="0.25">
       <c r="AZ285" s="1" t="s">
         <v>1156</v>
       </c>
@@ -19234,7 +19246,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="286" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="286" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E286" s="1" t="s">
         <v>1158</v>
       </c>
@@ -19281,7 +19293,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="287" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="287" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E287" s="1" t="s">
         <v>1163</v>
       </c>
@@ -19328,7 +19340,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="288" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="288" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E288" s="1" t="s">
         <v>1168</v>
       </c>
@@ -19375,12 +19387,12 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="289" spans="48:58" x14ac:dyDescent="0.35">
+    <row r="289" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AV289" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="290" spans="48:58" x14ac:dyDescent="0.35">
+    <row r="290" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AW290" s="1" t="s">
         <v>1173</v>
       </c>
@@ -19391,7 +19403,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="291" spans="48:58" x14ac:dyDescent="0.35">
+    <row r="291" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AW291" s="1" t="s">
         <v>595</v>
       </c>
@@ -19402,7 +19414,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="292" spans="48:58" x14ac:dyDescent="0.35">
+    <row r="292" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AW292" s="1" t="s">
         <v>1178</v>
       </c>
@@ -19413,7 +19425,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="293" spans="48:58" x14ac:dyDescent="0.35">
+    <row r="293" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AW293" s="1" t="s">
         <v>1181</v>
       </c>
@@ -19424,7 +19436,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="294" spans="48:58" x14ac:dyDescent="0.35">
+    <row r="294" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AW294" s="1" t="s">
         <v>1184</v>
       </c>
@@ -19435,7 +19447,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="295" spans="48:58" x14ac:dyDescent="0.35">
+    <row r="295" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AW295" s="1" t="s">
         <v>1187</v>
       </c>
@@ -19446,7 +19458,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="296" spans="48:58" x14ac:dyDescent="0.35">
+    <row r="296" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AW296" s="1" t="s">
         <v>607</v>
       </c>
@@ -19457,7 +19469,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="297" spans="48:58" x14ac:dyDescent="0.35">
+    <row r="297" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AW297" s="1" t="s">
         <v>1192</v>
       </c>
@@ -19468,7 +19480,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="298" spans="48:58" x14ac:dyDescent="0.35">
+    <row r="298" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AW298" s="1" t="s">
         <v>540</v>
       </c>
@@ -19479,7 +19491,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="299" spans="48:58" x14ac:dyDescent="0.35">
+    <row r="299" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AW299" s="1" t="s">
         <v>545</v>
       </c>
@@ -19490,7 +19502,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="300" spans="48:58" x14ac:dyDescent="0.35">
+    <row r="300" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AW300" s="1" t="s">
         <v>1199</v>
       </c>
@@ -19501,7 +19513,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="301" spans="48:58" x14ac:dyDescent="0.35">
+    <row r="301" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AW301" s="1" t="s">
         <v>1202</v>
       </c>
@@ -19512,7 +19524,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="302" spans="48:58" x14ac:dyDescent="0.35">
+    <row r="302" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AW302" s="1" t="s">
         <v>626</v>
       </c>
@@ -19523,7 +19535,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="303" spans="48:58" x14ac:dyDescent="0.35">
+    <row r="303" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AW303" s="1" t="s">
         <v>629</v>
       </c>
@@ -19534,7 +19546,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="304" spans="48:58" x14ac:dyDescent="0.35">
+    <row r="304" spans="48:58" x14ac:dyDescent="0.25">
       <c r="AW304" s="1" t="s">
         <v>632</v>
       </c>
@@ -19545,7 +19557,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="305" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AW305" s="1" t="s">
         <v>635</v>
       </c>
@@ -19556,7 +19568,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="306" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AW306" s="1" t="s">
         <v>1213</v>
       </c>
@@ -19567,7 +19579,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="307" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AW307" s="1" t="s">
         <v>1216</v>
       </c>
@@ -19578,7 +19590,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="308" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AW308" s="1" t="s">
         <v>1219</v>
       </c>
@@ -19589,7 +19601,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="309" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AW309" s="1" t="s">
         <v>647</v>
       </c>
@@ -19600,7 +19612,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="310" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AW310" s="1" t="s">
         <v>650</v>
       </c>
@@ -19611,7 +19623,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="311" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AW311" s="1" t="s">
         <v>653</v>
       </c>
@@ -19622,7 +19634,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="312" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AW312" s="1" t="s">
         <v>656</v>
       </c>
@@ -19633,7 +19645,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="313" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AW313" s="1" t="s">
         <v>1230</v>
       </c>
@@ -19644,7 +19656,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="314" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AW314" s="1" t="s">
         <v>1233</v>
       </c>
@@ -19655,12 +19667,12 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="315" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:58" x14ac:dyDescent="0.25">
       <c r="AV315" s="1" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="316" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>35000</v>
       </c>
@@ -19710,7 +19722,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="317" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>36000</v>
       </c>
@@ -19760,7 +19772,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="318" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E318" s="1" t="s">
         <v>1248</v>
       </c>
@@ -19807,7 +19819,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="319" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E319" s="1" t="s">
         <v>1253</v>
       </c>
@@ -19854,7 +19866,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="320" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E320" s="1" t="s">
         <v>1258</v>
       </c>
@@ -19901,7 +19913,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="321" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E321" s="1" t="s">
         <v>1263</v>
       </c>
@@ -19948,7 +19960,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="322" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <v>37000</v>
       </c>
@@ -19998,7 +20010,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="323" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <v>38000</v>
       </c>
@@ -20048,7 +20060,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="324" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E324" s="1" t="s">
         <v>1279</v>
       </c>
@@ -20095,7 +20107,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="325" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E325" s="1" t="s">
         <v>1285</v>
       </c>
@@ -20139,7 +20151,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="326" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E326" s="1" t="s">
         <v>1290</v>
       </c>
@@ -20183,7 +20195,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="327" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E327" s="1" t="s">
         <v>1294</v>
       </c>
@@ -20227,7 +20239,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="328" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E328" s="1" t="s">
         <v>1298</v>
       </c>
@@ -20271,7 +20283,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="329" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E329" s="1" t="s">
         <v>1302</v>
       </c>
@@ -20315,7 +20327,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="330" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E330" s="1" t="s">
         <v>1307</v>
       </c>
@@ -20359,7 +20371,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="331" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E331" s="1" t="s">
         <v>1311</v>
       </c>
@@ -20403,7 +20415,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="332" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E332" s="1" t="s">
         <v>1315</v>
       </c>
@@ -20447,7 +20459,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="333" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <v>39000</v>
       </c>
@@ -20497,7 +20509,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="334" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <v>40000</v>
       </c>
@@ -20547,7 +20559,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="335" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <v>41000</v>
       </c>
@@ -20597,7 +20609,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="336" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E336" s="1" t="s">
         <v>1336</v>
       </c>
@@ -20644,7 +20656,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="337" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E337" s="1" t="s">
         <v>1341</v>
       </c>
@@ -20691,7 +20703,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="338" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E338" s="1" t="s">
         <v>1346</v>
       </c>
@@ -20738,7 +20750,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="339" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E339" s="1" t="s">
         <v>1351</v>
       </c>
@@ -20785,7 +20797,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="340" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E340" s="1" t="s">
         <v>1356</v>
       </c>
@@ -20832,7 +20844,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="341" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E341" s="1" t="s">
         <v>1361</v>
       </c>
@@ -20879,7 +20891,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="342" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <v>44000</v>
       </c>
@@ -20929,7 +20941,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="343" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E343" s="1" t="s">
         <v>1372</v>
       </c>
@@ -20976,7 +20988,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="344" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:58" x14ac:dyDescent="0.25">
       <c r="F344" s="1" t="s">
         <v>1377</v>
       </c>
@@ -21023,7 +21035,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="345" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:58" x14ac:dyDescent="0.25">
       <c r="G345" s="1" t="s">
         <v>1382</v>
       </c>
@@ -21070,7 +21082,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="346" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:58" x14ac:dyDescent="0.25">
       <c r="G346" s="1" t="s">
         <v>1389</v>
       </c>
@@ -21117,7 +21129,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="347" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:58" x14ac:dyDescent="0.25">
       <c r="BA347" s="1" t="s">
         <v>1394</v>
       </c>
@@ -21128,7 +21140,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="348" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:58" x14ac:dyDescent="0.25">
       <c r="BA348" s="1" t="s">
         <v>1396</v>
       </c>
@@ -21139,7 +21151,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="349" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:58" x14ac:dyDescent="0.25">
       <c r="BA349" s="1" t="s">
         <v>1398</v>
       </c>
@@ -21150,7 +21162,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="350" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:58" x14ac:dyDescent="0.25">
       <c r="G350" s="1" t="s">
         <v>1400</v>
       </c>
@@ -21197,7 +21209,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="351" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:58" x14ac:dyDescent="0.25">
       <c r="BA351" s="1" t="s">
         <v>1405</v>
       </c>
@@ -21208,7 +21220,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="352" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:58" x14ac:dyDescent="0.25">
       <c r="BA352" s="1" t="s">
         <v>1407</v>
       </c>
@@ -21219,7 +21231,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="353" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="353" spans="5:58" x14ac:dyDescent="0.25">
       <c r="BA353" s="1" t="s">
         <v>1409</v>
       </c>
@@ -21230,7 +21242,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="354" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="354" spans="5:58" x14ac:dyDescent="0.25">
       <c r="BA354" s="1" t="s">
         <v>1411</v>
       </c>
@@ -21241,7 +21253,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="355" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="355" spans="5:58" x14ac:dyDescent="0.25">
       <c r="F355" s="1" t="s">
         <v>1413</v>
       </c>
@@ -21288,7 +21300,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="356" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="356" spans="5:58" x14ac:dyDescent="0.25">
       <c r="AZ356" s="1" t="s">
         <v>1418</v>
       </c>
@@ -21299,7 +21311,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="357" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="357" spans="5:58" x14ac:dyDescent="0.25">
       <c r="AZ357" s="1" t="s">
         <v>1420</v>
       </c>
@@ -21310,7 +21322,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="358" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="358" spans="5:58" x14ac:dyDescent="0.25">
       <c r="F358" s="1" t="s">
         <v>1422</v>
       </c>
@@ -21357,7 +21369,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="359" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="359" spans="5:58" x14ac:dyDescent="0.25">
       <c r="AZ359" s="1" t="s">
         <v>1427</v>
       </c>
@@ -21368,7 +21380,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="360" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="360" spans="5:58" x14ac:dyDescent="0.25">
       <c r="AZ360" s="1" t="s">
         <v>1429</v>
       </c>
@@ -21379,7 +21391,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="361" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="361" spans="5:58" x14ac:dyDescent="0.25">
       <c r="F361" s="1" t="s">
         <v>1431</v>
       </c>
@@ -21426,7 +21438,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="362" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="362" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E362" s="1" t="s">
         <v>1436</v>
       </c>
@@ -21473,7 +21485,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="363" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="363" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E363" s="1" t="s">
         <v>1441</v>
       </c>
@@ -21520,7 +21532,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="364" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="364" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E364" s="1" t="s">
         <v>1446</v>
       </c>
@@ -21567,7 +21579,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="365" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="365" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E365" s="1" t="s">
         <v>1452</v>
       </c>
@@ -21614,7 +21626,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="366" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="366" spans="5:58" x14ac:dyDescent="0.25">
       <c r="F366" s="1" t="s">
         <v>1457</v>
       </c>
@@ -21661,7 +21673,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="367" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="367" spans="5:58" x14ac:dyDescent="0.25">
       <c r="F367" s="1" t="s">
         <v>1463</v>
       </c>
@@ -21708,7 +21720,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="368" spans="5:58" x14ac:dyDescent="0.35">
+    <row r="368" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E368" s="1" t="s">
         <v>1471</v>
       </c>
@@ -21755,7 +21767,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="369" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <v>45000</v>
       </c>
@@ -21805,7 +21817,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="370" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <v>46000</v>
       </c>
@@ -21855,7 +21867,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="371" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E371" s="1" t="s">
         <v>1488</v>
       </c>
@@ -21902,7 +21914,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="372" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E372" s="1" t="s">
         <v>1492</v>
       </c>
@@ -21949,7 +21961,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="373" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E373" s="1" t="s">
         <v>1497</v>
       </c>
@@ -21996,7 +22008,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="374" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <v>49000</v>
       </c>
@@ -22046,12 +22058,12 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="375" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:58" x14ac:dyDescent="0.25">
       <c r="BD375" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="376" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B376" s="1">
         <v>111</v>
       </c>
@@ -22101,12 +22113,12 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="377" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:58" x14ac:dyDescent="0.25">
       <c r="BD377" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="378" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B378" s="1">
         <v>50000</v>
       </c>
@@ -22156,7 +22168,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="379" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B379" s="1">
         <v>51000</v>
       </c>
@@ -22206,7 +22218,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="380" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B380" s="1">
         <v>53000</v>
       </c>
@@ -22256,7 +22268,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="381" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B381" s="1">
         <v>55000</v>
       </c>
@@ -22306,7 +22318,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="382" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B382" s="1">
         <v>55100</v>
       </c>
@@ -22356,7 +22368,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="383" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B383" s="1">
         <v>55200</v>
       </c>
@@ -22406,7 +22418,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="384" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B384" s="1">
         <v>55300</v>
       </c>
@@ -22456,7 +22468,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="385" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B385" s="1">
         <v>57000</v>
       </c>
@@ -22506,7 +22518,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="386" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B386" s="1">
         <v>59000</v>
       </c>
@@ -22556,12 +22568,12 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="387" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD387" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="388" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>1565</v>
       </c>
@@ -22614,7 +22626,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="389" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>1565</v>
       </c>
@@ -22667,7 +22679,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="390" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B390" s="1">
         <v>61000</v>
       </c>
@@ -22717,7 +22729,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="391" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E391" s="1" t="s">
         <v>1586</v>
       </c>
@@ -22764,7 +22776,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="392" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F392" s="1" t="s">
         <v>1591</v>
       </c>
@@ -22811,7 +22823,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="393" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F393" s="1" t="s">
         <v>1596</v>
       </c>
@@ -22858,7 +22870,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="394" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E394" s="1" t="s">
         <v>1601</v>
       </c>
@@ -22905,7 +22917,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="395" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E395" s="1" t="s">
         <v>1607</v>
       </c>
@@ -22952,7 +22964,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="396" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E396" s="1" t="s">
         <v>1613</v>
       </c>
@@ -22999,7 +23011,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="397" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B397" s="1">
         <v>62000</v>
       </c>
@@ -23049,7 +23061,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="398" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E398" s="1" t="s">
         <v>1626</v>
       </c>
@@ -23096,7 +23108,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="399" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E399" s="1" t="s">
         <v>1633</v>
       </c>
@@ -23143,7 +23155,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="400" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F400" s="1" t="s">
         <v>1638</v>
       </c>
@@ -23190,7 +23202,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="401" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F401" s="1" t="s">
         <v>1643</v>
       </c>
@@ -23237,7 +23249,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="402" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F402" s="1" t="s">
         <v>1649</v>
       </c>
@@ -23284,7 +23296,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="403" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:58" x14ac:dyDescent="0.25">
       <c r="G403" s="1" t="s">
         <v>1654</v>
       </c>
@@ -23331,7 +23343,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="404" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:58" x14ac:dyDescent="0.25">
       <c r="G404" s="1" t="s">
         <v>1659</v>
       </c>
@@ -23378,7 +23390,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="405" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F405" s="1" t="s">
         <v>1664</v>
       </c>
@@ -23425,7 +23437,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="406" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F406" s="1" t="s">
         <v>1669</v>
       </c>
@@ -23472,7 +23484,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="407" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F407" s="1" t="s">
         <v>1675</v>
       </c>
@@ -23519,7 +23531,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="408" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B408" s="1">
         <v>63000</v>
       </c>
@@ -23569,7 +23581,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="409" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B409" s="1">
         <v>64000</v>
       </c>
@@ -23619,7 +23631,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="410" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E410" s="1" t="s">
         <v>1692</v>
       </c>
@@ -23666,7 +23678,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="411" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E411" s="1" t="s">
         <v>1697</v>
       </c>
@@ -23713,7 +23725,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="412" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E412" s="1" t="s">
         <v>1702</v>
       </c>
@@ -23760,7 +23772,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="413" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B413" s="1">
         <v>65000</v>
       </c>
@@ -23810,7 +23822,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="414" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B414" s="1">
         <v>66000</v>
       </c>
@@ -23860,7 +23872,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="415" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B415" s="1">
         <v>67000</v>
       </c>
@@ -23910,7 +23922,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="416" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>1725</v>
       </c>
@@ -23951,7 +23963,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="417" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B417" s="1">
         <v>68000</v>
       </c>
@@ -24001,7 +24013,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="418" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E418" s="1" t="s">
         <v>1737</v>
       </c>
@@ -24045,7 +24057,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="419" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>1745</v>
       </c>
@@ -24083,7 +24095,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="420" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B420" s="1">
         <v>69000</v>
       </c>
@@ -24133,7 +24145,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="421" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E421" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24180,7 +24192,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="422" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E422" s="1" t="s">
         <v>1762</v>
       </c>
@@ -24227,7 +24239,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="423" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>1767</v>
       </c>
@@ -24265,12 +24277,12 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="424" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD424" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="425" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B425" s="1">
         <v>75100</v>
       </c>
@@ -24320,7 +24332,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="426" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D426" s="1" t="s">
         <v>1779</v>
       </c>
@@ -24367,7 +24379,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="427" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D427" s="1" t="s">
         <v>1786</v>
       </c>
@@ -24414,7 +24426,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="428" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D428" s="1" t="s">
         <v>1791</v>
       </c>
@@ -24461,7 +24473,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="429" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D429" s="1" t="s">
         <v>1796</v>
       </c>
@@ -24508,7 +24520,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="430" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D430" s="1" t="s">
         <v>1802</v>
       </c>
@@ -24555,7 +24567,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="431" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D431" s="1" t="s">
         <v>1806</v>
       </c>
@@ -24602,7 +24614,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="432" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D432" s="1" t="s">
         <v>1810</v>
       </c>
@@ -24649,7 +24661,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="433" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:58" x14ac:dyDescent="0.25">
       <c r="D433" s="1" t="s">
         <v>1815</v>
       </c>
@@ -24696,7 +24708,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="434" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B434" s="1">
         <v>75500</v>
       </c>
@@ -24746,7 +24758,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="435" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B435" s="1">
         <v>75510</v>
       </c>
@@ -24796,7 +24808,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="436" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B436" s="1">
         <v>75520</v>
       </c>
@@ -24846,7 +24858,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="437" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E437" s="1" t="s">
         <v>49</v>
       </c>
@@ -24893,7 +24905,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="438" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E438" s="1" t="s">
         <v>752</v>
       </c>
@@ -24940,7 +24952,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="439" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E439" s="1" t="s">
         <v>757</v>
       </c>
@@ -24987,7 +24999,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="440" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E440" s="1" t="s">
         <v>1841</v>
       </c>
@@ -25034,7 +25046,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="441" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B441" s="1">
         <v>75530</v>
       </c>
@@ -25084,7 +25096,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="442" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E442" s="1" t="s">
         <v>49</v>
       </c>
@@ -25131,7 +25143,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="443" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E443" s="1" t="s">
         <v>757</v>
       </c>
@@ -25178,7 +25190,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="444" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B444" s="1">
         <v>75580</v>
       </c>
@@ -25228,7 +25240,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="445" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B445" s="1">
         <v>75590</v>
       </c>
@@ -25278,7 +25290,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="446" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E446" s="1" t="s">
         <v>49</v>
       </c>
@@ -25325,7 +25337,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="447" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E447" s="1" t="s">
         <v>752</v>
       </c>
@@ -25372,7 +25384,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="448" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E448" s="1" t="s">
         <v>757</v>
       </c>
@@ -25419,7 +25431,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="449" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E449" s="1" t="s">
         <v>364</v>
       </c>
@@ -25466,7 +25478,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="450" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E450" s="1" t="s">
         <v>764</v>
       </c>
@@ -25513,7 +25525,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="451" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E451" s="1" t="s">
         <v>1873</v>
       </c>
@@ -25560,7 +25572,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="452" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>1876</v>
       </c>
@@ -25610,12 +25622,12 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="453" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD453" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="454" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>1885</v>
       </c>
@@ -25665,12 +25677,12 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="455" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD455" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="456" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>1893</v>
       </c>
@@ -25720,7 +25732,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="457" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B457" s="1">
         <v>78000</v>
       </c>
@@ -25770,7 +25782,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="458" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B458" s="1">
         <v>81000</v>
       </c>
@@ -25820,7 +25832,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="459" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B459" s="1">
         <v>85500</v>
       </c>
@@ -25870,7 +25882,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="460" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>1918</v>
       </c>
@@ -25923,7 +25935,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="461" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C461" s="1" t="s">
         <v>1927</v>
       </c>
@@ -25970,7 +25982,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="462" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C462" s="1" t="s">
         <v>1933</v>
       </c>
@@ -26017,12 +26029,12 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="463" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD463" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="464" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C464" s="1" t="s">
         <v>1938</v>
       </c>
@@ -26045,7 +26057,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="465" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>1944</v>
       </c>
@@ -26098,7 +26110,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="466" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>1951</v>
       </c>
@@ -26148,7 +26160,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="467" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E467" s="1" t="s">
         <v>1960</v>
       </c>
@@ -26195,7 +26207,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="468" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>1968</v>
       </c>
@@ -26245,7 +26257,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="469" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C469" s="1" t="s">
         <v>1974</v>
       </c>
@@ -26292,7 +26304,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="470" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AV470" s="1" t="s">
         <v>1982</v>
       </c>
@@ -26309,7 +26321,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="471" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B471" s="1">
         <v>94000</v>
       </c>
@@ -26359,7 +26371,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="472" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>1990</v>
       </c>
@@ -26412,7 +26424,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="473" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B473" s="1">
         <v>95000</v>
       </c>
@@ -26462,7 +26474,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="474" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C474" s="1" t="s">
         <v>2002</v>
       </c>
@@ -26509,7 +26521,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="475" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B475" s="1">
         <v>95300</v>
       </c>
@@ -26559,12 +26571,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="476" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD476" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="477" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C477" s="1" t="s">
         <v>2016</v>
       </c>
@@ -26590,7 +26602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="478" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C478" s="1" t="s">
         <v>2019</v>
       </c>
@@ -26637,7 +26649,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="479" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D479" s="1" t="s">
         <v>2024</v>
       </c>
@@ -26684,7 +26696,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="480" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E480" s="1" t="s">
         <v>944</v>
       </c>
@@ -26732,7 +26744,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="481" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="481" spans="3:58" x14ac:dyDescent="0.25">
       <c r="F481" s="1" t="s">
         <v>2029</v>
       </c>
@@ -26780,7 +26792,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="482" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="482" spans="3:58" x14ac:dyDescent="0.25">
       <c r="F482" s="1" t="s">
         <v>986</v>
       </c>
@@ -26827,7 +26839,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="483" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="483" spans="3:58" x14ac:dyDescent="0.25">
       <c r="F483" s="1" t="s">
         <v>989</v>
       </c>
@@ -26874,7 +26886,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="484" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="484" spans="3:58" x14ac:dyDescent="0.25">
       <c r="F484" s="1" t="s">
         <v>1024</v>
       </c>
@@ -26921,7 +26933,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="485" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="485" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E485" s="1" t="s">
         <v>1078</v>
       </c>
@@ -26968,7 +26980,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="486" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="486" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E486" s="1" t="s">
         <v>2032</v>
       </c>
@@ -27015,7 +27027,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="487" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="487" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E487" s="1" t="s">
         <v>1241</v>
       </c>
@@ -27062,7 +27074,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="488" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="488" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E488" s="1" t="s">
         <v>1268</v>
       </c>
@@ -27109,7 +27121,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="489" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="489" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E489" s="1" t="s">
         <v>1274</v>
       </c>
@@ -27156,7 +27168,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="490" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="490" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E490" s="1" t="s">
         <v>1319</v>
       </c>
@@ -27203,7 +27215,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="491" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="491" spans="3:58" x14ac:dyDescent="0.25">
       <c r="D491" s="1" t="s">
         <v>2035</v>
       </c>
@@ -27250,7 +27262,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="492" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="492" spans="3:58" x14ac:dyDescent="0.25">
       <c r="D492" s="1" t="s">
         <v>2038</v>
       </c>
@@ -27297,7 +27309,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="493" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="493" spans="3:58" x14ac:dyDescent="0.25">
       <c r="D493" s="1" t="s">
         <v>2044</v>
       </c>
@@ -27344,7 +27356,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="494" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="494" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C494" s="1" t="s">
         <v>2050</v>
       </c>
@@ -27391,7 +27403,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="495" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="495" spans="3:58" x14ac:dyDescent="0.25">
       <c r="D495" s="1" t="s">
         <v>2055</v>
       </c>
@@ -27438,7 +27450,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="496" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="496" spans="3:58" x14ac:dyDescent="0.25">
       <c r="D496" s="1" t="s">
         <v>2060</v>
       </c>
@@ -27485,7 +27497,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="497" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="497" spans="3:58" x14ac:dyDescent="0.25">
       <c r="D497" s="1" t="s">
         <v>2068</v>
       </c>
@@ -27532,7 +27544,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="498" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="498" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E498" s="1" t="s">
         <v>2075</v>
       </c>
@@ -27579,7 +27591,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="499" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="499" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E499" s="1" t="s">
         <v>2079</v>
       </c>
@@ -27626,7 +27638,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="500" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="500" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E500" s="1" t="s">
         <v>2083</v>
       </c>
@@ -27673,7 +27685,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="501" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="501" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E501" s="1" t="s">
         <v>2090</v>
       </c>
@@ -27720,7 +27732,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="502" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="502" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E502" s="1" t="s">
         <v>2094</v>
       </c>
@@ -27767,7 +27779,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="503" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="503" spans="3:58" x14ac:dyDescent="0.25">
       <c r="D503" s="1" t="s">
         <v>1752</v>
       </c>
@@ -27814,7 +27826,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="504" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="504" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E504" s="1" t="s">
         <v>2099</v>
       </c>
@@ -27852,7 +27864,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="505" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="505" spans="3:58" x14ac:dyDescent="0.25">
       <c r="D505" s="1" t="s">
         <v>2106</v>
       </c>
@@ -27899,7 +27911,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="506" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="506" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C506" s="1" t="s">
         <v>1985</v>
       </c>
@@ -27946,7 +27958,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="507" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="507" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C507" s="1" t="s">
         <v>2111</v>
       </c>
@@ -27993,7 +28005,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="508" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="508" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C508" s="1" t="s">
         <v>1996</v>
       </c>
@@ -28040,7 +28052,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="509" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="509" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C509" s="1" t="s">
         <v>2002</v>
       </c>
@@ -28087,7 +28099,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="510" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="510" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C510" s="1" t="s">
         <v>2006</v>
       </c>
@@ -28134,12 +28146,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="511" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="511" spans="3:58" x14ac:dyDescent="0.25">
       <c r="BD511" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="512" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="512" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C512" s="1" t="s">
         <v>2112</v>
       </c>
@@ -28162,7 +28174,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="513" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B513" s="1">
         <v>38000</v>
       </c>
@@ -28212,7 +28224,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="514" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:58" x14ac:dyDescent="0.25">
       <c r="D514" s="1" t="s">
         <v>1279</v>
       </c>
@@ -28259,7 +28271,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="515" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E515" s="1" t="s">
         <v>2117</v>
       </c>
@@ -28306,7 +28318,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="516" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E516" s="1" t="s">
         <v>2124</v>
       </c>
@@ -28353,7 +28365,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="517" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E517" s="1" t="s">
         <v>2129</v>
       </c>
@@ -28400,7 +28412,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="518" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E518" s="1" t="s">
         <v>2134</v>
       </c>
@@ -28447,7 +28459,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="519" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E519" s="1" t="s">
         <v>2139</v>
       </c>
@@ -28494,7 +28506,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="520" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E520" s="1" t="s">
         <v>2144</v>
       </c>
@@ -28541,7 +28553,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="521" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:58" x14ac:dyDescent="0.25">
       <c r="D521" s="1" t="s">
         <v>2149</v>
       </c>
@@ -28588,7 +28600,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="522" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E522" s="1" t="s">
         <v>2152</v>
       </c>
@@ -28635,7 +28647,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="523" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E523" s="1" t="s">
         <v>2157</v>
       </c>
@@ -28682,7 +28694,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="524" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E524" s="1" t="s">
         <v>2163</v>
       </c>
@@ -28729,7 +28741,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="525" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:58" x14ac:dyDescent="0.25">
       <c r="D525" s="1" t="s">
         <v>1290</v>
       </c>
@@ -28776,7 +28788,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="526" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E526" s="1" t="s">
         <v>2172</v>
       </c>
@@ -28823,7 +28835,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="527" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:58" x14ac:dyDescent="0.25">
       <c r="E527" s="1" t="s">
         <v>2177</v>
       </c>
@@ -28870,7 +28882,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="528" spans="2:58" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:58" x14ac:dyDescent="0.25">
       <c r="D528" s="1" t="s">
         <v>1294</v>
       </c>
@@ -28917,7 +28929,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="529" spans="3:59" x14ac:dyDescent="0.35">
+    <row r="529" spans="3:59" x14ac:dyDescent="0.25">
       <c r="D529" s="1" t="s">
         <v>1298</v>
       </c>
@@ -28964,7 +28976,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="530" spans="3:59" x14ac:dyDescent="0.35">
+    <row r="530" spans="3:59" x14ac:dyDescent="0.25">
       <c r="E530" s="1" t="s">
         <v>2184</v>
       </c>
@@ -29011,7 +29023,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="531" spans="3:59" x14ac:dyDescent="0.35">
+    <row r="531" spans="3:59" x14ac:dyDescent="0.25">
       <c r="E531" s="1" t="s">
         <v>2189</v>
       </c>
@@ -29058,7 +29070,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="532" spans="3:59" x14ac:dyDescent="0.35">
+    <row r="532" spans="3:59" x14ac:dyDescent="0.25">
       <c r="E532" s="1" t="s">
         <v>2194</v>
       </c>
@@ -29105,7 +29117,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="533" spans="3:59" x14ac:dyDescent="0.35">
+    <row r="533" spans="3:59" x14ac:dyDescent="0.25">
       <c r="E533" s="1" t="s">
         <v>2202</v>
       </c>
@@ -29152,7 +29164,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="534" spans="3:59" x14ac:dyDescent="0.35">
+    <row r="534" spans="3:59" x14ac:dyDescent="0.25">
       <c r="F534" s="1" t="s">
         <v>2207</v>
       </c>
@@ -29199,7 +29211,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="535" spans="3:59" x14ac:dyDescent="0.35">
+    <row r="535" spans="3:59" x14ac:dyDescent="0.25">
       <c r="F535" s="1" t="s">
         <v>2212</v>
       </c>
@@ -29246,7 +29258,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="536" spans="3:59" x14ac:dyDescent="0.35">
+    <row r="536" spans="3:59" x14ac:dyDescent="0.25">
       <c r="D536" s="1" t="s">
         <v>1302</v>
       </c>
@@ -29293,7 +29305,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="537" spans="3:59" x14ac:dyDescent="0.35">
+    <row r="537" spans="3:59" x14ac:dyDescent="0.25">
       <c r="E537" s="1" t="s">
         <v>2218</v>
       </c>
@@ -29340,7 +29352,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="538" spans="3:59" x14ac:dyDescent="0.35">
+    <row r="538" spans="3:59" x14ac:dyDescent="0.25">
       <c r="E538" s="1" t="s">
         <v>2226</v>
       </c>
@@ -29387,7 +29399,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="539" spans="3:59" x14ac:dyDescent="0.35">
+    <row r="539" spans="3:59" x14ac:dyDescent="0.25">
       <c r="E539" s="1" t="s">
         <v>2232</v>
       </c>
@@ -29434,7 +29446,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="540" spans="3:59" x14ac:dyDescent="0.35">
+    <row r="540" spans="3:59" x14ac:dyDescent="0.25">
       <c r="D540" s="1" t="s">
         <v>1307</v>
       </c>
@@ -29481,7 +29493,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="541" spans="3:59" x14ac:dyDescent="0.35">
+    <row r="541" spans="3:59" x14ac:dyDescent="0.25">
       <c r="D541" s="1" t="s">
         <v>1311</v>
       </c>
@@ -29528,7 +29540,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="542" spans="3:59" x14ac:dyDescent="0.35">
+    <row r="542" spans="3:59" x14ac:dyDescent="0.25">
       <c r="D542" s="1" t="s">
         <v>1315</v>
       </c>
@@ -29575,7 +29587,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="543" spans="3:59" x14ac:dyDescent="0.35">
+    <row r="543" spans="3:59" x14ac:dyDescent="0.25">
       <c r="BD543" s="1" t="s">
         <v>493</v>
       </c>
@@ -29586,7 +29598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="544" spans="3:59" x14ac:dyDescent="0.35">
+    <row r="544" spans="3:59" x14ac:dyDescent="0.25">
       <c r="C544" s="1" t="s">
         <v>2243</v>
       </c>
@@ -29615,7 +29627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="545" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="545" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C545" s="1" t="s">
         <v>2246</v>
       </c>
@@ -29638,7 +29650,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="546" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="546" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C546" s="1" t="s">
         <v>2250</v>
       </c>
@@ -29685,7 +29697,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="547" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="547" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C547" s="1" t="s">
         <v>2261</v>
       </c>
@@ -29732,7 +29744,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="548" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="548" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C548" s="1" t="s">
         <v>2269</v>
       </c>
@@ -29779,7 +29791,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="549" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="549" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C549" s="1" t="s">
         <v>2279</v>
       </c>
@@ -29826,7 +29838,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="550" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="550" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C550" s="1" t="s">
         <v>2287</v>
       </c>
@@ -29873,7 +29885,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="551" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="551" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C551" s="1" t="s">
         <v>2288</v>
       </c>
@@ -29920,12 +29932,12 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="552" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="552" spans="3:58" x14ac:dyDescent="0.25">
       <c r="BD552" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="553" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="553" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C553" s="1" t="s">
         <v>2296</v>
       </c>
@@ -29948,7 +29960,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="554" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="554" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C554" s="1" t="s">
         <v>2299</v>
       </c>
@@ -29995,7 +30007,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="555" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="555" spans="3:58" x14ac:dyDescent="0.25">
       <c r="BD555" s="1" t="s">
         <v>21</v>
       </c>
@@ -30006,7 +30018,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="556" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="556" spans="3:58" x14ac:dyDescent="0.25">
       <c r="BD556" s="1" t="s">
         <v>21</v>
       </c>
@@ -30017,7 +30029,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="557" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="557" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C557" s="1" t="s">
         <v>922</v>
       </c>
@@ -30064,7 +30076,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="558" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="558" spans="3:58" x14ac:dyDescent="0.25">
       <c r="BD558" s="1" t="s">
         <v>21</v>
       </c>
@@ -30075,7 +30087,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="559" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="559" spans="3:58" x14ac:dyDescent="0.25">
       <c r="BD559" s="1" t="s">
         <v>21</v>
       </c>
@@ -30086,7 +30098,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="560" spans="3:58" x14ac:dyDescent="0.35">
+    <row r="560" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C560" s="1" t="s">
         <v>2305</v>
       </c>
@@ -30133,7 +30145,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="561" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD561" s="1" t="s">
         <v>21</v>
       </c>
@@ -30144,7 +30156,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="562" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD562" s="1" t="s">
         <v>21</v>
       </c>
@@ -30155,7 +30167,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="563" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C563" s="1" t="s">
         <v>927</v>
       </c>
@@ -30202,7 +30214,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="564" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD564" s="1" t="s">
         <v>21</v>
       </c>
@@ -30213,7 +30225,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="565" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD565" s="1" t="s">
         <v>21</v>
       </c>
@@ -30224,7 +30236,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="566" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C566" s="1" t="s">
         <v>2321</v>
       </c>
@@ -30271,7 +30283,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="567" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD567" s="1" t="s">
         <v>21</v>
       </c>
@@ -30282,7 +30294,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="568" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD568" s="1" t="s">
         <v>21</v>
       </c>
@@ -30293,12 +30305,12 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="569" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD569" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="570" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C570" s="1" t="s">
         <v>2328</v>
       </c>
@@ -30321,7 +30333,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="571" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C571" s="1" t="s">
         <v>2331</v>
       </c>
@@ -30368,7 +30380,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="572" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>1725</v>
       </c>
@@ -30418,7 +30430,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="573" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>1745</v>
       </c>
@@ -30468,7 +30480,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="574" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>1767</v>
       </c>
@@ -30518,12 +30530,12 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="575" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD575" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="576" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C576" s="1" t="s">
         <v>2356</v>
       </c>
@@ -30546,7 +30558,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="577" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C577" s="1" t="s">
         <v>2359</v>
       </c>
@@ -30593,7 +30605,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="578" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C578" s="1" t="s">
         <v>2367</v>
       </c>
@@ -30640,7 +30652,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="579" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C579" s="1" t="s">
         <v>2375</v>
       </c>
@@ -30687,7 +30699,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="580" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C580" s="1" t="s">
         <v>2383</v>
       </c>
@@ -30734,7 +30746,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="581" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C581" s="1" t="s">
         <v>2392</v>
       </c>
@@ -30781,7 +30793,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="582" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C582" s="1" t="s">
         <v>2398</v>
       </c>
@@ -30828,7 +30840,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="583" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C583" s="1" t="s">
         <v>2408</v>
       </c>
@@ -30875,7 +30887,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="584" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C584" s="1" t="s">
         <v>2418</v>
       </c>
@@ -30922,7 +30934,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="585" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C585" s="1" t="s">
         <v>2425</v>
       </c>
@@ -30969,12 +30981,12 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="586" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD586" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="587" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C587" s="1" t="s">
         <v>2430</v>
       </c>
@@ -30997,7 +31009,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="588" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C588" s="1" t="s">
         <v>2433</v>
       </c>
@@ -31044,7 +31056,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="589" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>1990</v>
       </c>
@@ -31097,7 +31109,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="590" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B590" s="1">
         <v>95000</v>
       </c>
@@ -31147,7 +31159,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="591" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C591" s="1" t="s">
         <v>2436</v>
       </c>
@@ -31194,7 +31206,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="592" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>2441</v>
       </c>
@@ -31244,12 +31256,12 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="593" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:59" x14ac:dyDescent="0.25">
       <c r="BD593" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="594" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>2447</v>
       </c>
@@ -31299,7 +31311,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="595" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>2451</v>
       </c>
@@ -31349,7 +31361,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="596" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C596" s="1" t="s">
         <v>2457</v>
       </c>
@@ -31396,7 +31408,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="597" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C597" s="1" t="s">
         <v>2462</v>
       </c>
@@ -31443,7 +31455,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="598" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:59" x14ac:dyDescent="0.25">
       <c r="BD598" s="1" t="s">
         <v>91</v>
       </c>
@@ -31454,7 +31466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="599" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C599" s="1" t="s">
         <v>2467</v>
       </c>
@@ -31483,7 +31495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="600" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C600" s="1" t="s">
         <v>2473</v>
       </c>
@@ -31530,7 +31542,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="601" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D601" s="1" t="s">
         <v>2481</v>
       </c>
@@ -31577,7 +31589,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="602" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:59" x14ac:dyDescent="0.25">
       <c r="E602" s="1" t="s">
         <v>130</v>
       </c>
@@ -31624,7 +31636,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="603" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:59" x14ac:dyDescent="0.25">
       <c r="E603" s="1" t="s">
         <v>135</v>
       </c>
@@ -31671,7 +31683,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="604" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:59" x14ac:dyDescent="0.25">
       <c r="E604" s="1" t="s">
         <v>140</v>
       </c>
@@ -31718,7 +31730,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="605" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D605" s="1" t="s">
         <v>2495</v>
       </c>
@@ -31765,7 +31777,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="606" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:59" x14ac:dyDescent="0.25">
       <c r="E606" s="1" t="s">
         <v>2500</v>
       </c>
@@ -31812,7 +31824,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="607" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:59" x14ac:dyDescent="0.25">
       <c r="E607" s="1" t="s">
         <v>2506</v>
       </c>
@@ -31859,7 +31871,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="608" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D608" s="1" t="s">
         <v>2511</v>
       </c>
@@ -31906,7 +31918,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="609" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E609" s="1" t="s">
         <v>2500</v>
       </c>
@@ -31953,7 +31965,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="610" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E610" s="1" t="s">
         <v>2506</v>
       </c>
@@ -32000,7 +32012,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="611" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C611" s="1" t="s">
         <v>2522</v>
       </c>
@@ -32047,12 +32059,12 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="612" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD612" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="613" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B613" s="1">
         <v>10000</v>
       </c>
@@ -32102,7 +32114,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="614" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B614" s="1">
         <v>11000</v>
       </c>
@@ -32152,7 +32164,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="615" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D615" s="1" t="s">
         <v>2540</v>
       </c>
@@ -32199,7 +32211,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="616" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B616" s="1">
         <v>12000</v>
       </c>
@@ -32249,7 +32261,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="617" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>2551</v>
       </c>
@@ -32302,7 +32314,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="618" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B618" s="1">
         <v>13100</v>
       </c>
@@ -32352,7 +32364,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="619" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B619" s="1">
         <v>13200</v>
       </c>
@@ -32402,7 +32414,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="620" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B620" s="1">
         <v>13300</v>
       </c>
@@ -32452,7 +32464,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="621" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B621" s="1">
         <v>18000</v>
       </c>
@@ -32502,7 +32514,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="622" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B622" s="1">
         <v>18100</v>
       </c>
@@ -32552,7 +32564,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="623" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B623" s="1">
         <v>18200</v>
       </c>
@@ -32602,7 +32614,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="624" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:58" x14ac:dyDescent="0.25">
       <c r="G624" s="1" t="s">
         <v>2587</v>
       </c>
@@ -32649,7 +32661,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="625" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:58" x14ac:dyDescent="0.25">
       <c r="G625" s="1" t="s">
         <v>2592</v>
       </c>
@@ -32696,7 +32708,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="626" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B626" s="1">
         <v>18300</v>
       </c>
@@ -32746,7 +32758,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="627" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B627" s="1">
         <v>18400</v>
       </c>
@@ -32796,7 +32808,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="628" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B628" s="1">
         <v>18700</v>
       </c>
@@ -32846,12 +32858,12 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="629" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD629" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="630" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C630" s="1" t="s">
         <v>2610</v>
       </c>
@@ -32898,7 +32910,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="631" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C631" s="1" t="s">
         <v>2616</v>
       </c>
@@ -32945,12 +32957,12 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="632" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:58" x14ac:dyDescent="0.25">
       <c r="BD632" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="633" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B633" s="1">
         <v>20000</v>
       </c>
@@ -32976,7 +32988,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="634" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D634" s="1" t="s">
         <v>2629</v>
       </c>
@@ -33023,7 +33035,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="635" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D635" s="1" t="s">
         <v>2634</v>
       </c>
@@ -33070,7 +33082,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="636" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>2639</v>
       </c>
@@ -33123,7 +33135,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="637" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B637" s="1">
         <v>24000</v>
       </c>
@@ -33173,7 +33185,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="638" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B638" s="1">
         <v>24100</v>
       </c>
@@ -33223,7 +33235,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="639" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B639" s="1">
         <v>24200</v>
       </c>
@@ -33273,7 +33285,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="640" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B640" s="1">
         <v>24300</v>
       </c>
@@ -33323,7 +33335,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="641" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B641" s="1">
         <v>24400</v>
       </c>
@@ -33373,7 +33385,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="642" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D642" s="1" t="s">
         <v>2677</v>
       </c>
@@ -33420,7 +33432,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="643" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:59" x14ac:dyDescent="0.25">
       <c r="BD643" s="1" t="s">
         <v>91</v>
       </c>
@@ -33431,7 +33443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="644" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>2682</v>
       </c>
@@ -33463,7 +33475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="645" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C645" s="1" t="s">
         <v>2690</v>
       </c>
@@ -33510,7 +33522,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="646" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D646" s="1" t="s">
         <v>2696</v>
       </c>
@@ -33557,7 +33569,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="647" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D647" s="1" t="s">
         <v>2704</v>
       </c>
@@ -33604,7 +33616,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="648" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D648" s="1" t="s">
         <v>2709</v>
       </c>
@@ -33651,7 +33663,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="649" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D649" s="1" t="s">
         <v>2717</v>
       </c>
@@ -33698,7 +33710,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="650" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>2722</v>
       </c>
@@ -33748,7 +33760,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="651" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C651" s="1" t="s">
         <v>2729</v>
       </c>
@@ -33798,7 +33810,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="652" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C652" s="1" t="s">
         <v>2736</v>
       </c>
@@ -33851,7 +33863,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="653" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C653" s="1" t="s">
         <v>2746</v>
       </c>
@@ -33901,7 +33913,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="654" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D654" s="1" t="s">
         <v>2754</v>
       </c>
@@ -33948,7 +33960,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="655" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D655" s="1" t="s">
         <v>2762</v>
       </c>
@@ -33995,7 +34007,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="656" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C656" s="1" t="s">
         <v>2740</v>
       </c>
@@ -34048,7 +34060,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="657" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C657" s="1" t="s">
         <v>2775</v>
       </c>
@@ -34095,7 +34107,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="658" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C658" s="1" t="s">
         <v>2740</v>
       </c>
@@ -34148,7 +34160,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="659" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C659" s="1" t="s">
         <v>2732</v>
       </c>
@@ -34201,7 +34213,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="660" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C660" s="1" t="s">
         <v>2740</v>
       </c>
@@ -34254,12 +34266,12 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="661" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:59" x14ac:dyDescent="0.25">
       <c r="BD661" s="1" t="s">
         <v>2689</v>
       </c>
     </row>
-    <row r="662" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C662" s="1" t="s">
         <v>2795</v>
       </c>
@@ -34306,7 +34318,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="663" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C663" s="1" t="s">
         <v>2802</v>
       </c>
@@ -34353,7 +34365,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="664" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:59" x14ac:dyDescent="0.25">
       <c r="BD664" s="1" t="s">
         <v>24</v>
       </c>
@@ -34364,7 +34376,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="665" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>2812</v>
       </c>
@@ -34414,7 +34426,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="666" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:59" x14ac:dyDescent="0.25">
       <c r="BD666" s="1" t="s">
         <v>24</v>
       </c>
@@ -34425,7 +34437,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="667" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C667" s="1" t="s">
         <v>2822</v>
       </c>
@@ -34472,7 +34484,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="668" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C668" s="1" t="s">
         <v>2830</v>
       </c>
@@ -34501,7 +34513,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="669" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:59" x14ac:dyDescent="0.25">
       <c r="BD669" s="1" t="s">
         <v>24</v>
       </c>
@@ -34512,7 +34524,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="670" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:59" x14ac:dyDescent="0.25">
       <c r="BD670" s="1" t="s">
         <v>24</v>
       </c>
@@ -34523,7 +34535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="671" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AV671" s="1" t="s">
         <v>2840</v>
       </c>
@@ -34534,7 +34546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="672" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AW672" s="1" t="s">
         <v>2841</v>
       </c>
@@ -34551,7 +34563,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="673" spans="49:59" x14ac:dyDescent="0.35">
+    <row r="673" spans="49:59" x14ac:dyDescent="0.25">
       <c r="AW673" s="1" t="s">
         <v>2843</v>
       </c>
@@ -34568,7 +34580,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="674" spans="49:59" x14ac:dyDescent="0.35">
+    <row r="674" spans="49:59" x14ac:dyDescent="0.25">
       <c r="AW674" s="1" t="s">
         <v>2845</v>
       </c>
@@ -34582,7 +34594,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="675" spans="49:59" x14ac:dyDescent="0.35">
+    <row r="675" spans="49:59" x14ac:dyDescent="0.25">
       <c r="AW675" s="1" t="s">
         <v>2848</v>
       </c>
@@ -34596,7 +34608,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="676" spans="49:59" x14ac:dyDescent="0.35">
+    <row r="676" spans="49:59" x14ac:dyDescent="0.25">
       <c r="AW676" s="1" t="s">
         <v>2851</v>
       </c>
@@ -34610,7 +34622,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="682" spans="49:59" x14ac:dyDescent="0.35">
+    <row r="682" spans="49:59" x14ac:dyDescent="0.25">
       <c r="BE682" s="1" t="s">
         <v>18</v>
       </c>

--- a/data/GB_Einzel_Template_B2020.xlsx
+++ b/data/GB_Einzel_Template_B2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365-my.sharepoint.com/personal/sm16a062_campus_unibe_ch/Documents/FS22_OpenData_Übung/Projekt_Agro_Income/agro_income/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_0A1FD63016B7822A5AD1E4668DA695E592E362EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFF3E298-0A44-4BA6-B981-99C478648FD2}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_0A1FD63016B7822A5AD1E4668DA695E592E362EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7216E56-5524-492A-91FD-C84DBF276614}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZA-Data" sheetId="2" r:id="rId1"/>
@@ -8638,12 +8638,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -8659,12 +8665,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -9335,14 +9342,16 @@
   </sheetPr>
   <dimension ref="A1:BG682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS88" workbookViewId="0">
-      <selection activeCell="BF89" sqref="BF89"/>
+    <sheetView tabSelected="1" topLeftCell="AV61" workbookViewId="0">
+      <selection activeCell="AX59" sqref="AX59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="56" width="10" style="1"/>
-    <col min="57" max="57" width="19.125" style="1" customWidth="1"/>
+    <col min="1" max="53" width="10" style="1"/>
+    <col min="54" max="54" width="2.375" style="1" customWidth="1"/>
+    <col min="55" max="56" width="10" style="1"/>
+    <col min="57" max="57" width="1.375" style="1" customWidth="1"/>
     <col min="58" max="58" width="18.125" style="1" customWidth="1"/>
     <col min="59" max="16384" width="10" style="1"/>
   </cols>
@@ -26740,7 +26749,7 @@
       <c r="BE480" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="BF480" s="1" t="s">
+      <c r="BF480" s="5" t="s">
         <v>948</v>
       </c>
     </row>
@@ -26976,7 +26985,7 @@
       <c r="BE485" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="BF485" s="1" t="s">
+      <c r="BF485" s="5" t="s">
         <v>1082</v>
       </c>
     </row>
@@ -27023,7 +27032,7 @@
       <c r="BE486" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="BF486" s="1" t="s">
+      <c r="BF486" s="5" t="s">
         <v>1240</v>
       </c>
     </row>
@@ -27070,7 +27079,7 @@
       <c r="BE487" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="BF487" s="1" t="s">
+      <c r="BF487" s="5" t="s">
         <v>1247</v>
       </c>
     </row>
@@ -27117,7 +27126,7 @@
       <c r="BE488" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="BF488" s="1" t="s">
+      <c r="BF488" s="5" t="s">
         <v>1273</v>
       </c>
     </row>
@@ -27164,7 +27173,7 @@
       <c r="BE489" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="BF489" s="1" t="s">
+      <c r="BF489" s="5" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -27211,7 +27220,7 @@
       <c r="BE490" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="BF490" s="1" t="s">
+      <c r="BF490" s="5" t="s">
         <v>1323</v>
       </c>
     </row>

--- a/data/GB_Einzel_Template_B2020.xlsx
+++ b/data/GB_Einzel_Template_B2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365-my.sharepoint.com/personal/sm16a062_campus_unibe_ch/Documents/FS22_OpenData_Übung/Projekt_Agro_Income/agro_income/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaeg\OneDrive - Universitaet Bern\FS22_OpenData_Übung\Projekt_Agro_Income\agro_income\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_0A1FD63016B7822A5AD1E4668DA695E592E362EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7216E56-5524-492A-91FD-C84DBF276614}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87061E32-77A7-462A-8EEF-C940B39E5221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1695" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZA-Data" sheetId="2" r:id="rId1"/>
@@ -9342,7 +9342,7 @@
   </sheetPr>
   <dimension ref="A1:BG682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AP419" workbookViewId="0">
       <selection activeCell="AX59" sqref="AX59"/>
     </sheetView>
   </sheetViews>
@@ -9350,8 +9350,9 @@
   <cols>
     <col min="1" max="53" width="10" style="1"/>
     <col min="54" max="54" width="2.375" style="1" customWidth="1"/>
-    <col min="55" max="56" width="10" style="1"/>
-    <col min="57" max="57" width="1.375" style="1" customWidth="1"/>
+    <col min="55" max="55" width="10" style="1"/>
+    <col min="56" max="56" width="26.5" style="1" customWidth="1"/>
+    <col min="57" max="57" width="45" style="1" customWidth="1"/>
     <col min="58" max="58" width="18.125" style="1" customWidth="1"/>
     <col min="59" max="16384" width="10" style="1"/>
   </cols>
